--- a/biology/Médecine/Médecine_au_Québec/Médecine_au_Québec.xlsx
+++ b/biology/Médecine/Médecine_au_Québec/Médecine_au_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_au_Qu%C3%A9bec</t>
+          <t>Médecine_au_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'étude et la pratique de la médecine au Québec visent le rétablissement et la conservation de la santé et la prévention, le diagnostic et la lutte contre les maladies des êtres humains. À l'instar d'autres juridictions, seuls les médecins sont habilités à exercer la médecine[1] après avoir obtenu un diplôme d'une faculté de médecine, effectué une résidence en médecine familiale, réussi les examens du Collège des médecins du Québec et obtenu leur permis d'exercice provincial. Le Québec compte en 2021 près de 21 700 médecins actifs[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étude et la pratique de la médecine au Québec visent le rétablissement et la conservation de la santé et la prévention, le diagnostic et la lutte contre les maladies des êtres humains. À l'instar d'autres juridictions, seuls les médecins sont habilités à exercer la médecine après avoir obtenu un diplôme d'une faculté de médecine, effectué une résidence en médecine familiale, réussi les examens du Collège des médecins du Québec et obtenu leur permis d'exercice provincial. Le Québec compte en 2021 près de 21 700 médecins actifs.
 En plus des médecins généraux et spécialistes, l'équipe soignante est composée de plusieurs personnes qualifiées dont les infirmières et infirmiers, préposés aux bénéficiaires et le personnel hospitalier. Au Québec, la médecine est pratiquée dans divers établissements pour la grande majorité publics (hôpitaux, cliniques, résidences), la visite de médecin à domicile est peu répandue ; les infirmières et infirmiers assurent parfois la surveillance des malades, les soins et l'administration des médicaments à domicile. La rémunération et la tarification des actes de la plupart des médecins sont dictées par la Régie de l'assurance-maladie du Québec.
-Le Québec compte des facultés de médecine dans quatre universités[3] : l'Université Laval, l'Université McGill, l'Université de Montréal et l'Université de Sherbrooke.
+Le Québec compte des facultés de médecine dans quatre universités : l'Université Laval, l'Université McGill, l'Université de Montréal et l'Université de Sherbrooke.
 </t>
         </is>
       </c>
